--- a/data/trans_dic/P0902-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 10,21</t>
+          <t>5,08; 10,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,61</t>
+          <t>3,81; 8,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,87</t>
+          <t>5,47; 10,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,51</t>
+          <t>5,86; 10,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 15,79</t>
+          <t>8,5; 16,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 15,78</t>
+          <t>8,43; 16,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 15,11</t>
+          <t>7,58; 15,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 14,92</t>
+          <t>9,75; 15,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,12; 11,23</t>
+          <t>7,15; 11,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,76</t>
+          <t>6,4; 10,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,2; 11,69</t>
+          <t>7,31; 11,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,38; 11,84</t>
+          <t>8,29; 11,73</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,81</t>
+          <t>3,12; 8,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,67</t>
+          <t>7,41; 14,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 8,3</t>
+          <t>3,51; 8,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 12,15</t>
+          <t>6,54; 12,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,21</t>
+          <t>6,33; 12,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 14,96</t>
+          <t>7,74; 14,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 13,59</t>
+          <t>6,73; 13,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,63; 16,01</t>
+          <t>10,72; 16,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,13</t>
+          <t>5,4; 9,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,5; 13,21</t>
+          <t>8,32; 12,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,95</t>
+          <t>5,59; 9,77</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 13,0</t>
+          <t>9,17; 12,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,92</t>
+          <t>5,55; 9,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,9</t>
+          <t>11,06; 16,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,6</t>
+          <t>6,72; 11,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 15,66</t>
+          <t>3,43; 16,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,41; 26,05</t>
+          <t>13,2; 25,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,06; 25,32</t>
+          <t>14,99; 25,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,81; 29,99</t>
+          <t>16,14; 29,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,63</t>
+          <t>18,15; 29,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 12,5</t>
+          <t>8,06; 12,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 18,05</t>
+          <t>12,99; 17,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 15,18</t>
+          <t>9,98; 15,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 17,93</t>
+          <t>4,85; 18,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,93</t>
+          <t>8,61; 11,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 15,05</t>
+          <t>10,95; 15,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,93; 12,61</t>
+          <t>9,05; 12,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,66; 17,86</t>
+          <t>13,5; 18,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 14,99</t>
+          <t>9,92; 14,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 17,91</t>
+          <t>12,56; 17,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,69; 15,57</t>
+          <t>10,75; 15,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 16,66</t>
+          <t>6,9; 16,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>9,56; 12,48</t>
+          <t>9,53; 12,34</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,16; 15,54</t>
+          <t>12,21; 15,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,19; 13,14</t>
+          <t>10,28; 13,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,11; 16,4</t>
+          <t>10,01; 16,5</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,45; 14,12</t>
+          <t>7,68; 14,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,53; 15,3</t>
+          <t>9,65; 15,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 16,48</t>
+          <t>11,06; 16,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,81; 21,51</t>
+          <t>14,64; 21,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,85; 18,07</t>
+          <t>12,26; 18,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,36; 31,15</t>
+          <t>24,1; 30,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,36</t>
+          <t>20,43; 26,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 27,42</t>
+          <t>17,75; 27,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,99; 15,56</t>
+          <t>10,81; 15,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,18; 23,75</t>
+          <t>19,19; 23,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,81; 21,25</t>
+          <t>16,6; 21,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,98; 24,21</t>
+          <t>17,98; 24,13</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,56; 5,43</t>
+          <t>1,59; 5,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,61</t>
+          <t>1,8; 6,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 4,07</t>
+          <t>0,38; 4,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,65</t>
+          <t>1,16; 5,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,73; 19,9</t>
+          <t>15,56; 20,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,63; 25,84</t>
+          <t>20,42; 25,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>19,13; 24,48</t>
+          <t>19,1; 24,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>22,08; 27,06</t>
+          <t>21,86; 27,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,16; 16,72</t>
+          <t>13,14; 16,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,17; 21,55</t>
+          <t>17,19; 21,39</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,1; 19,82</t>
+          <t>15,27; 19,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,17; 21,33</t>
+          <t>17,0; 21,27</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1565,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 9,15</t>
+          <t>7,34; 9,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1574,52 +1575,52 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,42</t>
+          <t>8,36; 10,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,41; 13,38</t>
+          <t>9,13; 13,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 15,84</t>
+          <t>13,46; 15,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,48; 21,29</t>
+          <t>18,57; 21,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,4; 19,14</t>
+          <t>16,25; 18,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,72; 19,95</t>
+          <t>15,09; 19,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,66; 12,22</t>
+          <t>10,62; 12,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,72; 16,47</t>
+          <t>14,65; 16,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12,66; 14,51</t>
+          <t>12,73; 14,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,07; 16,36</t>
+          <t>13,1; 16,35</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>34428</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>25522</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>33031</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>39916</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35679</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37184</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38561</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>54916</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70107</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>62706</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>71591</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>94832</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>24073; 48963</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>16664; 38279</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>23451; 46039</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29623; 52918</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26082; 49620</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26503; 50640</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>26316; 52592</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43632; 67218</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>55816; 87381</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48073; 81384</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56773; 90966</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>78951; 111724</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18458</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>43153</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21002</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41035</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33843</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>36647</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>35706</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>50609</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52302</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>79800</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>56709</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>91645</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>11461; 30365</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31050; 59033</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>13234; 31817</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>29576; 55140</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>23521; 45859</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26151; 50301</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25061; 51017</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>41000; 61524</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>39873; 69852</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>62981; 98073</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>41876; 73261</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>76567; 108179</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41098</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>85271</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>46884</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63645</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31628</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50777</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>37120</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38019</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>72726</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>136048</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>84004</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>101663</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>30078; 53996</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>69491; 105864</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>35064; 62024</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22934; 109300</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22151; 42747</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38718; 65079</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26807; 49121</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30292; 48536</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>57212; 87569</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>115207; 158634</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>68661; 103580</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>40442; 150539</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>126602</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149763</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>124164</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>164201</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>87846</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>116253</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>106702</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>122799</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>214448</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>266016</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>230866</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>287000</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>106630; 147243</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>126956; 175726</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>104007; 144882</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>139510; 187496</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>70877; 105660</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>96297; 136144</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>88756; 128453</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>67491; 162754</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>186035; 240994</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>235199; 297936</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>203167; 261935</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>201301; 331867</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>36395</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62934</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>84117</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>84954</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>83579</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>209727</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>171134</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>198702</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>119974</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>272660</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>255251</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>283657</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>26905; 49340</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>49287; 78862</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>68666; 103190</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>69401; 101513</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>69716; 102956</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>183507; 235076</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>150802; 197653</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>149158; 230423</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99395; 140452</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>244179; 303774</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>225583; 286009</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>236287; 317062</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9559</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>9879</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4654</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6092</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>220019</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>254379</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>235020</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>186685</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>229577</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>264258</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>239674</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>192777</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>4751; 16552</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4803; 18151</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1087; 12509</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2784; 12913</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>194282; 251077</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>226067; 284557</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>206630; 263098</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>166409; 205571</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>203223; 258968</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>236277; 293910</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>209017; 269623</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>170304; 213081</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1175</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1651</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>266539</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>376521</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>313851</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>399844</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>492594</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>704966</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>624243</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>651730</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>759133</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1081488</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>938095</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1051574</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>240096; 302282</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>339424; 417399</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>282890; 350229</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>307929; 448245</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>454550; 535322</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>658442; 753140</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>573960; 670247</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>539693; 711070</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>706199; 809013</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1020803; 1142497</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>880848; 1001279</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>910531; 1136134</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P0902-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
